--- a/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
+++ b/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="20190528" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="20190531" sheetId="4" r:id="rId4"/>
     <sheet name="20190603" sheetId="5" r:id="rId5"/>
     <sheet name="20190604" sheetId="6" r:id="rId6"/>
+    <sheet name="20190605" sheetId="7" r:id="rId7"/>
+    <sheet name="20190606" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="156">
   <si>
     <t>遇到的问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -621,6 +623,187 @@
   </si>
   <si>
     <t>1.与客户沟通如何从3表汇总表中形成三表数据的逻辑</t>
+  </si>
+  <si>
+    <t>人员名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遇到的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.核对总裁驾驶舱。
+2.开发总裁驾驶舱第二版本。
+3.编写需求说明书。
+4.sap数据取数调研。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成
+4.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.总裁驾驶舱取数
+2.总裁驾驶舱图表使用可行性分析
+3.sap数据跟进，app跟进
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.demo驾驶舱修改。
+2.数据对接。
+3.正式开发。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.demo驾驶舱修改。
+2.确认一版驾驶舱。
+3.开发两套方案。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.出差报备页面展示
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成添加页面
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.开发客户接待功能
+2.编辑功能；
+3.查看客户；
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待完成
+2.待完成
+3.待完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.开发客户接待功能
+2.编辑客户；
+3.删除客户；
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.安装并配置SAP hana数据库，向客户确认表的位置
+2.整理BI概要设计说明书中有关数据库表的模块</t>
+  </si>
+  <si>
+    <t>1.向客户确认SAP hana数据库表的位置，并确认取数逻辑
+2.在kettle中对数据进行逻辑上的处理，汇总数据</t>
+  </si>
+  <si>
+    <t>1.驾驶舱数据源可取数部分取数规则。
+2.客户接待部分的审批流程。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.写好的基础经营指标分析bi设计文档及需求文档进行需求核对，开始数据库建模跟进。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.demo驾驶舱修改。
+2.确认一版驾驶舱。
+3.开发两套方案。
+4.放入测试数据。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.确认驾驶舱。
+2.驾驶舱上线。
+3.放入测试数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈子瑶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.开发客户接待功能
+2.页面增删改查模块已初步完成，细节待处理
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待完成
+2.待完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.开发客户接待功能
+2.处理审批流程
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.出差天数是否去除周六日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.出差报备申请页面展示
+2.后台数据保存业务
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成删除，修改操作
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在kettle中对五个模块的数据进行逻辑上的处理，汇总数据
+2.配合BI调整DEMO的配色
+3.整理驾驶舱指标数据源</t>
+  </si>
+  <si>
+    <t>1.向客户确认驾驶舱指标数据源
+2.配合BI对基础经营指标数据进行完善</t>
   </si>
 </sst>
 </file>
@@ -698,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -731,6 +914,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1803,7 +1992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
@@ -1943,4 +2132,289 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="36.75" customWidth="1"/>
+    <col min="8" max="8" width="31.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="99" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43621</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43621</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43621</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43613</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43621</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="35.875" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43622</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43621</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43613</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43622</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43622</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
+++ b/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="20190528" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="20190604" sheetId="6" r:id="rId6"/>
     <sheet name="20190605" sheetId="7" r:id="rId7"/>
     <sheet name="20190606" sheetId="8" r:id="rId8"/>
+    <sheet name="20190610" sheetId="9" r:id="rId9"/>
+    <sheet name="20190611" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="194">
   <si>
     <t>遇到的问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -804,6 +806,216 @@
   <si>
     <t>1.向客户确认驾驶舱指标数据源
 2.配合BI对基础经营指标数据进行完善</t>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高祥云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.文档问题记录
+2.bi驾驶舱上线测试环境
+3.计划文档细分，计划常态化。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.app项目计划完成情况
+2.确认需求文档
+3.问题的整理及追踪，到负责人
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.确认驾驶舱。
+2.驾驶舱上线。
+3.放入测试数据。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.基础经营指标分析开发。
+2.数据整理。
+3.页面出版整理。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.开发客户接待功能
+2.细节待处理
+3.写审批流程
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待完成
+2.待完成
+3.待完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理直接领导能否直接调用，市场总经理以及公司总经理是否可以变量获取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.开发客户接待功能
+2.继续处理业务细节
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.出差报备删除和修改页面
+2.审核的后台大致流程（级别功能没确定）
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.添加时一二级部门的关联没确定
+2.页面的时间计算问题（没解决）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.审核的级别判断
+2.页面时间的自动计算
+3.修改时页面的审核时间的修改功能
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.向客户确认驾驶舱指标数据源并完成驾驶舱kettle抽数
+2.配合BI对驾驶舱数据进行完善</t>
+  </si>
+  <si>
+    <t>1.整理bi详细设计文档
+2.配合BI对基础经营指标数据进行完善</t>
+  </si>
+  <si>
+    <t>明日计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.对需求的核对
+2.问题排查及解决，生成问题清单
+3.正式环境上线驾驶舱demo
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.修改第二版需求，进行审核
+2.写下个模块的需求文档
+3.问题跟踪
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.基础经营指标开发。
+2.数据整合提取。
+3.页面布局规划，图形样式。
+4.有需挂出页面即挂出，规范名称。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.开发客户接待功能
+2.接待系统政务微信外的功能基本实现
+3.写审批流程
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理直接领导能否直接调用，市场总经理以及公司总经理是否可以变量获取
+2.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.继续处理业务细节
+3.接入政务微信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模块功能的完善
+2.页面时间的自动获取计算，
+3.查询页面的审核时间修改
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.页面时间计算
+2.查询时数据的重复加载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.删除了ul下的所有li标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.审核的级别判断
+2.页面的细节优化
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗加云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.向客户确认基础经营指标模块所需指标
+2.将连接正式环境使用kettle抽取驾驶舱里的数据
+3.根据确认的需求整理基础经营指标体系模块数据源，改善数据模型
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 80%
+2. 80%
+3.80%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.驾驶舱里地图中所需省份数据不统一
+2.漏斗图所需指标需要向客户询问表及字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.向客户确认基础经营指标体系模块表及字段并完善数据模型
+2.跟踪驾驶舱省份数据问题并测试正式环境驾驶舱数据正确性
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1406,6 +1618,157 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" activeCellId="1" sqref="B7:H7 C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="46.75" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="43.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43627</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43627</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="99" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43613</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43627</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="99" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43627</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H7"/>
@@ -2278,7 +2641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2417,4 +2780,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="48.125" customWidth="1"/>
+    <col min="8" max="8" width="38.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43626</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43626</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43626</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43626</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43626</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
+++ b/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="20190528" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,19 @@
     <sheet name="20190606" sheetId="8" r:id="rId8"/>
     <sheet name="20190610" sheetId="9" r:id="rId9"/>
     <sheet name="20190611" sheetId="10" r:id="rId10"/>
+    <sheet name="20190612" sheetId="11" r:id="rId11"/>
+    <sheet name="20190613" sheetId="12" r:id="rId12"/>
+    <sheet name="20190614" sheetId="13" r:id="rId13"/>
+    <sheet name="20190617" sheetId="14" r:id="rId14"/>
+    <sheet name="20190618" sheetId="15" r:id="rId15"/>
+    <sheet name="20190619" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="306">
   <si>
     <t>遇到的问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1015,6 +1021,594 @@
     <t xml:space="preserve">1.向客户确认基础经营指标体系模块表及字段并完善数据模型
 2.跟踪驾驶舱省份数据问题并测试正式环境驾驶舱数据正确性
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高祥云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.修改经营分析指标的详细方案，生成经营指标分析v1.1。
+2.编写工程管理及售后400的bi设计方案。
+3.对方案进行核定。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试驾驶舱及经营分析指标，完成测试用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.基础经营指标开发。
+2.驾驶舱调整修。
+3.页面布局规划，图形样式。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成
+4.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.基础经营板块模板开发。
+2.拿取数据。
+3.如可以进行页面布局调整。
+4.有需挂出页面即挂出，规范名称。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈子瑶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.待完成
+2.已完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.页面的细节优化
+2.系统流程和显示界面功能的修改
+3.地点的选择器完善
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.页面的刷新加载，标签属性问题
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.开发客户接待功能
+2.修改功能bug
+3. 熟悉办公网activity工作流
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将驾驶舱除地图模块的job部署到正式环境
+2.配合BI画工程售后模块DEMOv1.0版本并向客户确认经分demo指标
+3.根据确认经分模块的需求后的数据源，改善数据模型</t>
+  </si>
+  <si>
+    <t>1.90%
+2.完成
+3.90%</t>
+  </si>
+  <si>
+    <t>1.驾驶舱地图模块省份不规范
+2.漏斗图需求需要最终确定
+3.SAP取不到表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.需要和客户讨论解决方案
+2.需求确认
+</t>
+  </si>
+  <si>
+    <t>1.整理bi详细设计文档
+2.确认漏斗图内容，向客户确认数据源并完成kettle抽数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.修改完善出差的流程
+2.办公网客户接待接口开发
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.开发审批流
+3.办公网客户接待接口开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.系统流程和显示界面功能的修改
+2.时间选择器的业务判断
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.新模块的开发
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高祥云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.确认sap数据问题
+2.调研损益表及资产负债表的相关需求
+3.编写测试用例
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+3.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.跟进sap数据问题
+2.跟进页面不自适应的问题
+3.对模块进行测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.合同、业绩、回款三个页面已开发完成待完善。
+2.驾驶舱新增需求板块完成，有空缺需求没确认。
+3.BI、驾驶舱页面的简单布局调整。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+3.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱页面布局适应问题需调整修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.经营指标板块的数据要填充多一些。
+2.经营指标、驾驶舱页面的布局规划调整。
+3.驾驶舱拿取数据做钻取功能，新增需求的图表展示内容确认。
+4.开发完成功能页面布局可以确定一版可以挂出。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.讨论SAP财务三表、行业业绩、确认收入的需求
+2.驾驶舱需求调整，整理驾驶舱人力模块所需指标
+3.整理经营分析指标的业绩回款漏斗图所需指标
+4.确认损益表需求，画出DEMO并向财务经理确认了demo方案
+5.根据确认的损益表需求，设计后台表结构</t>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成
+4.完成
+5.50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.客户确认招人清洗数据
+2.需求确认
+</t>
+  </si>
+  <si>
+    <t>1.整理bi详细设计文档
+2.确认漏斗图内容，向客户确认数据源并完成kettle抽数
+3.根据确认的损益表需求和设计表结构建表
+4.向客户确认驾驶舱人力模块的数据源并完成数据抽取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.开发客户接待功能
+2.往政务微信放代码
+3.查看业务流程
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待完成
+2.已完成
+3.已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.开发审批流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>1.驾驶舱及经营指标分析相关问题的处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高祥云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.跟进sap数据问题
+2.跟进页面不自适应的问题
+3.补全需求相关文档
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营指标板块的数据要填充多一些。
+2.经营指标、驾驶舱页面的布局规划调整。
+3.BI完成开发，功能完善数据测试调整。
+4.驾驶舱需求确认，开发新需求页面。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成
+4.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据杂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.驾驶舱上线。
+2.经营指标测试数据逻辑。
+3.经营指标挂出上线。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.部署调试内网
+3.写客户接待借口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.测试通过内网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待完成
+2.待完成
+3.待完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.开发查询和更新接口
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.接口测试
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.确认漏斗图内容，向客户确认数据源并完成kettle抽数
+2.根据确认的损益表需求和设计表结构建表
+3.向客户确认驾驶舱人力模块的数据源并完成数据抽取
+4.将经营分析平台的kettle同步到正式</t>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成
+4.完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.SAP取不到表</t>
+  </si>
+  <si>
+    <t>1.整理bi详细设计文档
+2.配合BI完成驾驶舱和经营分析平台任务
+3.测试数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.驾驶舱UI模板重新开发。
+2.人力数据的修改。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱浏览器兼容问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.驾驶舱调整。
+2.经营指标板块数据要更改。
+3.经营指标板块的页面调整。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.部署内网tomcat
+3.调试客户接待接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待完成
+2.已完成
+3.已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.贯穿项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.调试项目本地测试开发
+2.调试CURD接口，实现基本业务逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进行业务逻辑的开发
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试经营分析合同模块数据并修正数据
+2.确认驾驶舱各职级人数、在岗人数、空岗人数并修改kettle逻辑
+3.向BI人员提供数据集逻辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.SAP取不到表
+</t>
+  </si>
+  <si>
+    <t>1.测试并修正数据
+2.正式环境kettle抽数逻辑同步到测试
+3.配合BI人员处理页面数据逻辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.驾驶舱页面调整成720P可展示上，保存两版模板。
+2.完整一版已上线到正式环境中（720P电脑上）。
+3.页面自适应还要调整，帆软支持也在找方法解决。
+4.驾驶舱链接功能实现，自适应也是有问题。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱自适应问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆软支持也在解决跟进现在也在寻找解决办法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营指标分析页面调整。
+2.部分数据也需要重新整理添加。
+3.驾驶舱现在问题主要解决在电脑上的自适应问题。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈子瑶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.调试工作流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待完成
+2.未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流debug不进断点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未找到原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.调试ui
+3.调试工作流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.调试客户接待的业务逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.两个系统的连不上
+2.活动流的进不去问题
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.本地调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.业务逻辑调试
+2.客户接待的app界面的调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.BI页面逻辑变动，调整数据模型和结构
+2.向BI人员提供数据集逻辑
+3.正式环境kettle抽数逻辑同步到测试</t>
+  </si>
+  <si>
+    <t>1.测试页面和数据
+2.配合BI人员处理页面数据逻辑和样式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.驾驶舱测试、正式已经同步上线。
+2.经营指标分析测试、正式已经同步上线。
+3.页面自适应问题帆软支持，页面可以正常浏览。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶舱在不同浏览器中的浏览问题，产品自身问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆软支持也在解决跟进现在也在寻找解决办法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营指标分析、驾驶舱的是否有需要调整解决。
+2.工程售后需要排版出一版demo样式。
+3.添加与锐安数据库类似的测试数据。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.客户接待的app界面的调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.调试客户接待的业务逻辑
+2.调试APP连接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.调试客户接待的业务逻辑
+2.调试activity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈子瑶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试页面和数据
+2.配合BI人员处理页面数据逻辑和样式
+3.与客户沟通工程售后的需求</t>
+  </si>
+  <si>
+    <t>1.根据整理工程售后模块需求建模，确认数据源
+2.kettle抽数</t>
+  </si>
+  <si>
+    <t>1.正式环境上线
+2.排bi工作计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高祥云</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1439,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1622,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" activeCellId="1" sqref="B7:H7 C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1761,6 +2355,866 @@
       <c r="G7" s="2"/>
       <c r="H7" s="4" t="s">
         <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="49.25" customWidth="1"/>
+    <col min="8" max="8" width="49.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43628</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43628</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43628</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43628</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43628</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="42.375" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="34.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43629</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43629</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43628</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43629</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43613</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H2" sqref="B2:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="38.375" customWidth="1"/>
+    <col min="8" max="8" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43630</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43630</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43613</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43630</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="99" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43630</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="8" max="8" width="38.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43633</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43633</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43633</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43633</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="54.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43634</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43613</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43634</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43633</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="37.25" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43635</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43635</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43635</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43635</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43635</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2200,7 +3654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2501,7 +3955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -2786,7 +4240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
+++ b/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="20190528" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,15 @@
     <sheet name="20190617" sheetId="14" r:id="rId14"/>
     <sheet name="20190618" sheetId="15" r:id="rId15"/>
     <sheet name="20190619" sheetId="16" r:id="rId16"/>
+    <sheet name="20190620" sheetId="17" r:id="rId17"/>
+    <sheet name="20190621" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="344">
   <si>
     <t>遇到的问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1611,12 +1613,215 @@
     <t>高祥云</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>1.工程售后400及确认收入的模型建立,
+2.对bi模型进行初步确认。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.编写测试用例。
+2.跟进初步demo。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营指标分析需要调整改动记录。
+2.工程售后初版样式已出待确认修改调整。
+3.测试数据工程售后初版模型做出。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营指标分析修改调整。
+2.工程售后模板样式需要确认最终版本。
+3.添加测试环境数据然后模板展出进行修改调整。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.整理工程售后模块需求建模
+2.确认数据源
+2.kettle抽数
+4.配合振兴测试环境造数
+5.同步测试环境KETTLE作业</t>
+  </si>
+  <si>
+    <t>1.完成
+2.60%：总项目数和完工验收项目数的计划完成时间取法不同，按时完工率和验收完成率取法逻辑需进一步确认
+3.50%
+4.完成
+5.完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.SAP取不到表
+2.确认收入数据来源不明确
+</t>
+  </si>
+  <si>
+    <t>1.进一步确认需求
+2.kettle数据抽取
+3.测试数据正确性</t>
+  </si>
+  <si>
+    <t>陈子瑶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.调试工作流
+3.完善审批流程
+4.写工具类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待完成
+2.已完成
+3.已完成
+4.已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.调试项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.调试部门与员工的三级关联
+2.开发业务层
+3.前台页面的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">直接选择一级部门，没有办法直接选择员工
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.调研sap取数。
+2.编写测试用例。
+3.与财务讨论相关问题及需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成损益表的相关页面demo。
+2.完成测试用例。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营指标分析名称颜色修改微调。
+2.工程售后模板样式已确认版本。
+3.添加测试环境数据然后模板展出进行修改调整。
+4.修改表结构规范命名，测试正式与测试环境上线页面是否正常
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.售后管理模板确认，测试数据插入数据检校。
+2.整体样式调整(字体大小颜色、模块位置等）。
+3.对数，测试数据逻辑是否正确。
+4.售后管理测试环境和正式环境确定无误可以上线。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进一步确认工程项目需求
+2.kettle数据抽取
+3.删除数据库中多余表
+4.按规则将kettle作业和数据表命名规范化</t>
+  </si>
+  <si>
+    <t>1.完成
+2.90%：项目费用类型指标取数不确定
+4.完成
+5.完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.确认项目费用类型取数逻辑
+2.测试数据正确性
+</t>
+  </si>
+  <si>
+    <t>陈子瑶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.调试项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.调试项目
+3.调试ui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.调试出差公出报备的 查询页面，添加页面和显示页面的布局和显示效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有部分未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续修改页面
+2.编写 部门和员工的关联查询业务逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1654,6 +1859,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14996795556505021"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1687,7 +1899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1726,6 +1938,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3077,7 +3292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3220,6 +3435,294 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="51.375" customWidth="1"/>
+    <col min="5" max="5" width="41.75" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43636</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="99" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43636</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43636</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43636</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="99" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43636</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="8" max="8" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43637</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="165" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43637</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="132" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43637</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43613</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43637</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
+++ b/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="20190528" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,15 @@
     <sheet name="20190619" sheetId="16" r:id="rId16"/>
     <sheet name="20190620" sheetId="17" r:id="rId17"/>
     <sheet name="20190621" sheetId="18" r:id="rId18"/>
+    <sheet name="20190624" sheetId="19" r:id="rId19"/>
+    <sheet name="20190625" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="362">
   <si>
     <t>遇到的问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1814,6 +1816,112 @@
   <si>
     <t>1.继续修改页面
 2.编写 部门和员工的关联查询业务逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.与财务核对损益表页面demo，总结相关问题。
+2.梳理日报需求，完成日报功能文档。
+3. 核对工程售后400及确认收入的页面
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.售后管理模块的问题跟踪。
+2.sap相关问题的确认。
+3.后续开发任务的确认。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.售后管理模块已在正式环境，尚未挂出。
+2.售后管理的整体页面调整规划。
+3.正式环境中数据质量，页面效果不理想。
+4.确认收入没有数据且是否属于售后管理需确认。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.售后管理正式上线挂出模板。
+2.整体样式调整修改。
+3.数据准确性，数据逻辑验证是否正确。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.确认项目费用类型取数逻辑
+2.kettle项目费用数据抽取并同步到正式
+3.配合BI出逻辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.测试工程售后数据正确性
+</t>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.调试项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.跟进客户接待相关实现的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.跟进客户接待相关实现的问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 损益表demo修改跟进。
+ 下阶段bi工作工作内容确认
+ 下阶段bi工作需求确认
+对sap的数据问题进行确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.出人力资源demo
+2.跟进工程售后400数据验证
+3.跟进sap数据问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.售后工程正式环境挂出。
+2.整体样式调整修改。
+3.确认收入没有数据，正式环境中用的还是测试数据。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+3.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.核对正式环境工程售后数据正确性。
+2.确认指标、维度。
+3.人力的demo页面初版画出。
+4.测试环境demo模板出版。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.抽取工程售后省份关联城市数据
+2.完成各省份城市项目数统计数据抽取
+3.理解损益表逻辑
+4.向客户核对人力模块需求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.SAP取不到表
+2.各省份项目数中部分省份数据关联不到（数据质量问题）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.测试工程售后数据正确性
+2.根据人力模块核对的需求整理指标维度建模
+</t>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.调试项目</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1864,6 +1972,7 @@
       <sz val="11"/>
       <color theme="0" tint="-0.14996795556505021"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3587,8 +3696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3717,6 +3826,144 @@
       <c r="G7" s="2"/>
       <c r="H7" s="4" t="s">
         <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="B6:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="37.25" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43640</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="132" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43640</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43640</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43640</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43640</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3869,6 +4116,147 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="44.5" customWidth="1"/>
+    <col min="8" max="8" width="40.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43641</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="132" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43641</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="165" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43641</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43641</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43641</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H7"/>

--- a/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
+++ b/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="20190528" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="20190621" sheetId="18" r:id="rId18"/>
     <sheet name="20190624" sheetId="19" r:id="rId19"/>
     <sheet name="20190625" sheetId="20" r:id="rId20"/>
+    <sheet name="20190626" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="378">
   <si>
     <t>遇到的问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1922,6 +1923,91 @@
   <si>
     <t>1.开发客户接待功能
 2.调试项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 人力demo跟进，
+跟进sap问题。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.人力确认指标、维度。
+2.人力的demo页面初版excl。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.核对正式环境工程售后数据正确性。
+2.人力测试环境初版页面开发。
+3.插入测试数据。
+4.调整人力页面样式以及模块的分布指标维度等。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈子瑶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发客户接待功能
+2.调试ui
+3.写出差公备接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发出差公备相关接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配合BI出人力模块原型
+2.整理人力指标维度
+3.理解现金流量表逻辑</t>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.SAP取不到表、逻辑需要核对
+2.各省份项目数中部分省份数据关联不到（数据质量问题）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.测试工程售后数据正确性
+2.根据人力模块核对的需求整理指标维度建模
+3.确认人力模块数据源
+</t>
+  </si>
+  <si>
+    <t>1.熟悉日报的需求
+2.修改部门三级联动的mui效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改出差公出报备的逻辑代码
+2.测试出差公出报备页面效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4120,8 +4206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4254,6 +4340,152 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="44.25" customWidth="1"/>
+    <col min="8" max="8" width="47.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43642</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43642</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43642</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43642</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="198" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43642</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
+++ b/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="25" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="20190528" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,24 @@
     <sheet name="20190624" sheetId="19" r:id="rId19"/>
     <sheet name="20190625" sheetId="20" r:id="rId20"/>
     <sheet name="20190626" sheetId="21" r:id="rId21"/>
+    <sheet name="20190627" sheetId="22" r:id="rId22"/>
+    <sheet name="20190628" sheetId="23" r:id="rId23"/>
+    <sheet name="20190701" sheetId="24" r:id="rId24"/>
+    <sheet name="20190702" sheetId="25" r:id="rId25"/>
+    <sheet name="20190703" sheetId="26" r:id="rId26"/>
+    <sheet name="20190704" sheetId="27" r:id="rId27"/>
+    <sheet name="20190705" sheetId="28" r:id="rId28"/>
+    <sheet name="20190708" sheetId="29" r:id="rId29"/>
+    <sheet name="20190709" sheetId="30" r:id="rId30"/>
+    <sheet name="20190710" sheetId="31" r:id="rId31"/>
+    <sheet name="20190711" sheetId="32" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="476">
   <si>
     <t>遇到的问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2010,12 +2021,568 @@
 2.测试出差公出报备页面效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">1.人力测试环境初版页面开发。
+2.插入测试数据。
+3.调整人力页面样式以及模块的分布指标维度等。
+4.无管理权限人力模板已开发完成。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.人力测试环境初版页面开发。
+2.ETL抽取数据。
+3.插入测试数据。
+4.不开权限和开权限的人力模板开发完成。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.根据人力模块核对的需求整理指标维度建模
+2.确认人力模块数据源</t>
+  </si>
+  <si>
+    <t>1.人力模块抽数
+2.与SAP专家梳理SAP数据逻辑
+3.建立SAP底层数据模型</t>
+  </si>
+  <si>
+    <t>1.开发日报管理
+2.写相关接口文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待完成
+2.已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发日报相关功能
+2.确认相关需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.熟悉日报的需求
+2.编写日报的接口文档
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试日报的业务逻辑
+2.熟悉日报的需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发日报管理
+2.写相关接口文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.人力测试环境初版页面开发。
+2.插入测试数据。
+3.调整人力页面样式以及模块的分布指标维度等。
+4.无管理权限人力模板已开发完成。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.熟悉日报的需求
+2.编写日报的接口文档
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试日报的业务逻辑
+2.熟悉日报的需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.预研日报功能
+2.明确日报相关文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待完成
+2.待完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.人力资源分析板块页面调整确认。
+2.模块单元数据的排序筛选。
+3.测试和正式数据质量太杂，页面模块的修改调整还需要跟进。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.人力资源分析板块在正式上线，放入正式数据。
+2.根据正式环境的数据需要进行板块展示内容的调整。
+3.进行数据验证。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.人力模块抽数
+2.人力模块同步到正式环境
+3.梳理SAP损益表逻辑</t>
+  </si>
+  <si>
+    <t>1.完成
+2.90%
+3.60%</t>
+  </si>
+  <si>
+    <t>1.各省份项目数中部分省份数据关联不到（数据质量问题）
+2.员工信息表中学历数据冗余</t>
+  </si>
+  <si>
+    <t>1.人力模块抽数
+2.根据需求开始SAP逻辑编写</t>
+  </si>
+  <si>
+    <t>王晓旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.熟悉日报的前台页面
+2.修改客户接待出现的问题
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.页面只写了部分（报工详情和打卡信息页面）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉日报的需求
+2.编写日报的前台页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.预研日报功能
+2.明确日报相关文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待完成
+2.待完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.人力资源分析板块在正式上线，放入正式数据。
+2.根据正式环境的数据需要进行板块展示内容的调整。
+3.配置数据权限。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.人力资源分析板块权限解决完成。
+2.根据正式环境的数据需要进行板块展示内容的调整。
+3.调整图表样式。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.人力模块抽数
+2.根据需求开始SAP逻辑编写
+3.配合人力模块权限控制
+4.配合BI调整demo</t>
+  </si>
+  <si>
+    <t>1.完成
+2.50%
+3.完成
+4.完成</t>
+  </si>
+  <si>
+    <t>1.各省份项目数中部分省份数据关联不到（数据质量问题）
+2.员工信息表中学历数据冗余
+3.员工表中部分员工无法对应到事业群</t>
+  </si>
+  <si>
+    <t>1.根据需求SAP逻辑编写</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.编写日报的前台页面
+2.修改客户接待在“执行”之前的可编辑功能
+3.修改不住宿的地点不可填写
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉日报的需求
+2.编写日报的前台页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.人力资源模块正式环境已上线且权限问题也已解决。
+2.整体模板页面调整，有些业务板块比较空洞因为数据质量问题。
+3.测试、正式环境数据质量有差别数据支撑有差别。
+4.财务三张报表进入初始阶段。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成
+4.进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.人力资源两大模块的数据校验。
+2.财务报表的开发，考虑前端页面展示效率以及SQL优化。
+3.页面的demo、数据逻辑取数规则权限等。
+4.财务报表的数据需要先从SAP抽取到数据库确保有财务数据以及数据万无一失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.根据需求SAP损益表逻辑编写
+2.创建ods层数据表，添加batch_id字段</t>
+  </si>
+  <si>
+    <t>1.70%
+2.完成</t>
+  </si>
+  <si>
+    <t>1.根据需求SAP逻辑编写
+2.ods到dw kettle抽取逻辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.编写日报的业务逻辑串通
+2.修改客户接待的页面问题
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.编写日报的业务逻辑
+2.编写日报的前台页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发日报相关功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.调试tms相关项目
+2.开发日报功能
+3.客户接待流程bug修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.更改dw层表字段类型，为dw层表添加批次号字段
+2.将科目余额和对调科目余额添加插入更新时间字段
+3.编写ods层数据到dw层的kettle抽取逻辑
+</t>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.60%</t>
+  </si>
+  <si>
+    <t>1.编写ods层数据到dw层的kettle抽取逻辑
+2.根据权限需求调整，更改经营分析模块合同、业绩和回款的数据结构
+3.根据权限需求调整，更改经营分析模块合同、业绩和回款的数据结构</t>
+  </si>
+  <si>
+    <t>1.各省份项目数中部分省份数据关联不到（数据质量问题）
+2.员工信息表中学历数据冗余
+3.员工表中部分员工无法对应到事业群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.工程售后、人力资源两大模块的数据校验。
+2.资产负债表先做样式模板在自己电脑。
+3.分析经营分析、工程售后需要给事业群、事业部另出BI仪表盘分配权限。
+4.需要做的任务，修改的页面以及SQL数据集包括页面调整。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.要延迟
+2.进行中
+3.完成
+4.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营分析、工程售后事业群事业部的BI仪表盘,,分配权限。
+2.SAP财务数据确保完成取数进行开发。
+3.资产负债表持续跟进。
+4.经营分析、工程售后权限分配SQL需要修改底表需要修改，查验保证管理层BI不受影响。
+5.部分仪表盘板块需要重新开发添加权限。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.预研日报功能
+2.写日报相关接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待完成
+2.待完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发日报相关功能
+2.测试日报接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.编写日报的业务逻辑串通
+2.编写日报的业务逻辑
+3.编写日报的前台页面
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.分析驾驶舱、经营分析和工程售后事业群事业部的BI仪表盘,,分配权限。
+2.资产负债表持续跟进。
+3.评估驾驶舱、经营分析和工程售后需要开发的底层数据添加字段需要的数据源。
+4.SAP数据的保证质量。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.进行中
+3.进行中
+4.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.编写文档。
+2.驾驶舱、经营分析、工程售后权限分配，重新开发SQL数据集进行权限分配。
+3.资产负债表持续跟进。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.补充详细设计和概要设计文档
+2.根据权限需求调整，更改经营分析模块合同、业绩和回款的数据结构</t>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成
+4.60%</t>
+  </si>
+  <si>
+    <t>1.编写ods层数据到dw层的kettle抽取逻辑
+2.和SAP专家核对SAP系统到ods的数据准确性
+3.自测ods到dw的数据准确性
+4.整理由于添加权限所涉及到的底层数据变动</t>
+  </si>
+  <si>
+    <t>1.根据权限需求调整，更改经营分析模块合同、业绩和回款的数据结构
+2.根据权限需求调整，向客户确定数据源
+3.检查SAP ods到dw 抽数的逻辑准确性</t>
+  </si>
+  <si>
+    <t>1.完成
+2.80%
+3.完成</t>
+  </si>
+  <si>
+    <t>1.配合BI将驾驶舱和经营分析模块的权限功能开发
+2.将kettle更新到正式
+3.查看sap抽数进程并优化sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.编写已通过的测试文档。
+2.驾驶舱、经营分析、工程售后权限分配，底层数据开发，前端页面重新开发。
+3.SAP数据已取得数。
+4.驾驶舱部分板块联动已开发完
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进行中
+2.进行中
+3.完成
+4.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.编写已通过的测试文档。
+2.驾驶舱、经营分析、工程售后权限分配，底层数据开发，前端页面重新开发。
+3.驾驶舱板块联动开发完成。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发日报相关功能
+2.测试日报接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.各省份项目数中部分省份数据关联不到（数据质量问题）
+2.员工信息表中学历数据冗余
+3.员工表中部分员工无法对应到事业群
+4.业绩基础表的汇总数据与业绩记录基础表的明细数据不致，回款基础表的汇总数据与项目回款列表的明细数据不一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.驾驶舱联动测试环境开发完成。
+2.经营分析测试环境数据逻辑开发完成，权限未加。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营分析测试环境数据逻辑全部完结。
+2.配置权限，测试环境测试权限是否完成。
+3.驾驶舱调整检测。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配合BI将驾驶舱和经营分析模块的权限功能开发
+2.检查SAP ods到dw数据抽取是否正确
+3.跟进SAP 35表36表数据问题</t>
+  </si>
+  <si>
+    <t>1.50%
+2.完成
+3.完成</t>
+  </si>
+  <si>
+    <t>1.各省份项目数中部分省份数据关联不到（数据质量问题）
+2.员工信息表中学历数据冗余
+3.员工表中部分员工无法对应到事业群
+4.业绩基础表的汇总数据与业绩记录基础表的明细数据不致，回款基础表的汇总数据与项目回款列表的明细数据不一致
+5.sap原系统35明细表和36汇总表2018年第四期间的数据不一致</t>
+  </si>
+  <si>
+    <t>1.配合BI将驾驶舱和经营分析模块的权限功能开发
+2.将kettle更新到正式
+3.查看sap抽数进程并优化sql
+4.损益表汇总表逻辑已经编写完成且数据已核对无误</t>
+  </si>
+  <si>
+    <t>1.各省份项目数中部分省份数据关联不到（数据质量问题）
+2.员工信息表中学历数据冗余
+3.员工表中部分员工无法对应到事业群
+4.业绩基础表的汇总数据与业绩记录基础表的明细数据不致，回款基础表的汇总数据与项目回款列表的明细数据不一致
+5.sap原系统35明细表和36汇总表2018年第四期间、2017第11期间的数据不一致</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程并优化sql
+2.编写sap钻取和明细表逻辑
+3.核对人力数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营分析测试环境数据逻辑全部完结。
+2.配置权限，测试环境测试权限分配完成。
+3.经营分析权限测试开发完成。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+3.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营分析测试环境权限开发完成检测。
+2.正式环境权限开发测试。
+3.财务报表损益表开发。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配合BI将驾驶舱和经营分析模块的权限功能开发
+2.查看sap抽数进程，排查35表数据和36表数据不一致的原因
+3.损益表会计科目下钻表逻辑已经编写完成</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.编写sap钻取和明细表逻辑
+3.核对35表36表数据
+4.编写三表开发逻辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营分析测试环境权限开发已经完成。
+2.经营分析的正式环境权限已经开发完成并完成测试。
+3.目前的经营分析、驾驶舱、售后管理、人力资源新增加的需求都已完成。
+4.配置权限。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.正式环境经营分析、驾驶舱、售后管理、人力资源总的进行测试检验。
+2.财务报表的开发。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2041,6 +2608,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14996795556505021"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14996795556505021"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2094,7 +2677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2135,6 +2718,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4347,8 +4936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4486,6 +5075,1006 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="43.625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43643</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43643</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43643</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43643</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="41.75" customWidth="1"/>
+    <col min="8" max="8" width="43.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43642</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43643</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="198" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43643</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43643</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="53.125" customWidth="1"/>
+    <col min="8" max="8" width="38.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43647</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43647</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="181.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43647</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="99" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43647</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43642</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43648</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="264" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43648</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="99" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43648</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="51.625" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="41.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43649</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43649</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43649</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43649</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="B5:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="43.75" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="8" max="8" width="53.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43649</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43650</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43650</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43650</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="37.75" customWidth="1"/>
+    <col min="8" max="8" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43651</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="264" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43651</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43650</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43650</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="54.125" customWidth="1"/>
+    <col min="6" max="6" width="42.625" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="200.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43654</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="181.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43654</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43654</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43654</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4628,6 +6217,370 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="38.375" customWidth="1"/>
+    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="8" max="8" width="38.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43655</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="200.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43655</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43655</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43655</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="64" customWidth="1"/>
+    <col min="6" max="6" width="48.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="165" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43656</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="231" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43656</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43656</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43656</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="68.625" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="198" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43657</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="165" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43657</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43657</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43657</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
+++ b/workfile/锐安项目文档/工作日志单/工作日志单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="25" activeTab="31"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="39" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="20190528" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,25 @@
     <sheet name="20190709" sheetId="30" r:id="rId30"/>
     <sheet name="20190710" sheetId="31" r:id="rId31"/>
     <sheet name="20190711" sheetId="32" r:id="rId32"/>
+    <sheet name="20190712" sheetId="33" r:id="rId33"/>
+    <sheet name="20190715" sheetId="34" r:id="rId34"/>
+    <sheet name="20190716" sheetId="35" r:id="rId35"/>
+    <sheet name="20190717" sheetId="36" r:id="rId36"/>
+    <sheet name="20190718~20190726" sheetId="37" r:id="rId37"/>
+    <sheet name="20190729" sheetId="38" r:id="rId38"/>
+    <sheet name="20190730" sheetId="39" r:id="rId39"/>
+    <sheet name="20190731" sheetId="40" r:id="rId40"/>
+    <sheet name="20190801" sheetId="41" r:id="rId41"/>
+    <sheet name="20190802" sheetId="42" r:id="rId42"/>
+    <sheet name="20190805" sheetId="43" r:id="rId43"/>
+    <sheet name="Sheet1" sheetId="44" r:id="rId44"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="597">
   <si>
     <t>遇到的问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2577,12 +2589,695 @@
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.编写sap钻取下级部门和明细表逻辑
+3.核对35表36表数据
+4.跟踪人力、业绩回款问题数据和sap权限表来源
+5.配合BI修改个别事业群主查看事业群数据权限
+6.配合BI向财务人员核对损益表显示需求</t>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成
+4.30%
+5.完成
+6.完成</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.编写etl详细设计文档</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.正式环境经营分析、驾驶舱、售后管理、人力资源权限分配完成，功能实现。
+2.权限分配问题，个人详情表中事业群主的权限分配需要给出最终分配方案进行分配。
+3.损益表总表的开发。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+3.完成
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.财务报表损益表的开发。
+</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.配合BI开发损益表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.开发损益表-钻取到下级部门报表完成。
+2.开发损益表-钻取到会计科目页面报表完成。
+3.设计概要文档修改。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成损益表-钻取到下级部门、损益表-钻取到会计科目报表。
+2.进行开发损益表-明细表。
+3.进行开发财务报表损益表的下钻功能。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.配合BI开发损益表
+4.梳理相关资产负债表逻辑</t>
+  </si>
+  <si>
+    <t>1.各省份项目数中部分省份数据关联不到（数据质量问题）
+2.员工信息表中学历数据冗余
+3.员工表中部分员工无法对应到事业群
+4.业绩基础表的汇总数据与业绩记录基础表的明细数据不致，回款基础表的汇总数据与项目回款列表的明细数据不一致
+5.sap原系统35明细表和36汇总表2018年第四期间、2017第11期间的数据不一致
+6.正确的财务人到利润中心组的数据权限表没有拿到</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.配合BI开发损益表
+4.梳理相关资产负债表逻辑并验证逻辑正确性</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.配合BI开发损益表
+4.优化资产负债表逻辑
+5.核对损益表数据正确性</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.配合BI开发损益下钻表
+4.梳理相关资产负债表逻辑并验证逻辑正确性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏div效果 影响js赋值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发日报相关功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成损益表-钻取到下级部门、损益表-钻取到会计科目报表、损益表-明细表。
+2.进行开发损益表-明细表。
+3.损益表除了权限用户问题还有界面调整优化，整体开发完成功能实现。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+3.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.损益表用户权限分配问题需要给出详细信息。
+2.核对损益表数据。
+3.损益表的页面调优。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.调整发票池的页面传递
+2.调整数据传输和显示
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.调整发票池的页面和数据传递</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成
+4.完成
+5.完成</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.优化资产负债表逻辑
+4.核对损益表数据正确性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.损益表用户权限完成。
+2.损益表功能基本实现。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.损益表整体开发完成功能实现。
+2.核对损益表数据。
+3.损益表的页面调优。
+4.开发资产负债表。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.开发日报相关功能</t>
+  </si>
+  <si>
+    <t>王晓旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.20%
+4.70%</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.根据现有35表抽取逻辑调整ods到dw表的etl逻辑
+4.核对损益表数据正确性，和财务对损益表需求</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.优化资产负债表逻辑,处理资产负债明细表逻辑
+4.配合BI出资产负债汇总表和明细表</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.优化资产负债明细表逻辑
+4.核对资产负债数据正确性</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.优化资产负债明细表逻辑
+4.核对资产负债数据正确性
+5.修改员工流动分析模型</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.核对资产负债数据正确性
+4.现金流量表逻辑编写并核对数据
+5.修改员工结构分析底层数据模型</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.核对资产负债数据正确性
+4.修改员工流动分析模型
+5.编写现金流量明细表逻辑</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.修改员工流动分析模型
+4.配合BI完成现金流量表开发</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.核对现金流量明细表数据正确性
+4.修改员工流动分析模型</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.核对现金流量明细表数据正确性
+4.修改经营分析模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.损益表小样式微调，权限问题需要进行沟通给出一个最终方案。
+2.已开发完成资产负债表，开通财务权限进行测试核对数据，然后反馈问题进行修改。
+3.开发资产详情表。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+3.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.资产负债表的问题反馈修改，进行调整。
+2.完成资产负债详情表。
+3.损益表分配开通权限。
+4.可以开发现金流量表。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.损益表核对数据，ETL数据抽取页面展示效率提高。
+2.损益表上线一版进行测试反馈。
+3.反馈问题进行修改完善。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.开发资产负债表。
+2.修改人力资源、经营分析权限控制分配。
+3.跟踪损益表线上功能修改。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.资产负债表的问题反馈修改，进行调整。
+2.开发完成资产负债详情表。
+3.完成损益表分配开通权限。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.人力资源分析重新开发，员工结构分析底层和权限重新开发。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.人力资源分析模块重新开发，员工结构分析板块重新开发完成。
+2.现金流量表主表总体开发完成，明细表未开发。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.现金流量表主表开发完成，需要调整。
+2.明细表也可开发。
+3.人力资源分析的员工流动分析也可开发。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.现金流量表主表开发完成，仅主表开发完成，其余下级部门与明细表未开发。 
+2.损益表、资产负债表反馈问题调整。
+3.人力资源分析的员工流动分析也可开发。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+3.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.现金流量表主表开发完成。
+2.损益表各下钻表的名称、表明显示需要找实现方法。
+3.人力资源分析的员工流动分析开发。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.现金流量表主表开发完成。
+2.损益表各下钻表的名称、表明显示需要寻找实现方法实现方式是用JS编写。
+3.人力资源分析模块测试环境已经重新开发修改完成。  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+3.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.资产负债表开发工作，测试核对数据正式上线。
+2.经营指标分析模块的框架调整，底层模型重构。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.调整发票票据页面在‘团建费’状态时的发票表单（后四位）的校验
+2.解决选择发票池发票数据回显的问题
+3.查看考勤业务逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.考勤业务逻辑正在进行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.考勤业务的开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.捋顺并完善出差公出报备代码逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.考勤业务的开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.将人力底层模型同步到正式环境
+4.配合BI人力模块上线</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.修改经营分析模型
+4.对行业业绩和确认收入的需求</t>
+  </si>
+  <si>
+    <t>陈子瑶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发假期管理的相关功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">80%
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假期管理外网相关功能的实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.资产负债表开发完成，测试上线。
+2.人力资源分析上生产正式环境。
+3.现金流量表开发。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+3.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.资产负债表正式上生产环境。
+2.现金流量表开发任务。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.修改经营分析模型</t>
+  </si>
+  <si>
+    <t>1.资产负债表测试中。
+2.现金流量表开发任务。
+3.工程售后模型修改，人力资源修改完成。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+2.完成
+3.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营指标分析模型修改。
+2.资产负债表测试数据。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈子瑶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1开发假期功能
+2.预研待办功能逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待完成
+2.待完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发待办相关功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.编写考勤明细的补登操作
+2.修改日报发现的费用报销的发票池的bug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.考勤明细的前台页面的修改完善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.修改经营分析模型
+4.核对经营指标数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营指标分析模型修改。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营指标分析模型修改。
+2.资产负债表测试。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成考勤明细的补登操作业务逻辑
+2.考勤明细的前台查询休息日的展示修改
+3.完善出差公出报备的查询前台列表
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.待完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完善出差公出报备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.经营指标分析修改个别权限配置。
+2.资产负债表分配权限。
+3.修改经营分析的单个模块。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营分析、人力分析权限个别问题修改。
+2.资产负债表上线，权限分配跟踪。
+3.现金流量表逻辑修改。
+4.财务报表权限分配表单。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看抽数进程
+2.核对35表36表数据
+3.整理BI最新模型的数据源并反馈</t>
+  </si>
+  <si>
+    <t>1.各省份项目数中部分省份数据关联不到（数据质量问题）
+2.员工信息表中学历数据冗余
+3.员工表中部分员工无法对应到事业群
+4.业绩基础表的汇总数据与业绩记录基础表的明细数据不致，回款基础表的汇总数据与项目回款列表的明细数据不一致
+5.sap原系统35明细表和36汇总表2018年第四期间、2017第11期间的数据不一致
+6.sap周末两天加周一一天未抽数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看抽数进程
+2.核对35表36表数据
+3.现金流量表逻辑修改</t>
+  </si>
+  <si>
+    <t>1.修改日报遗留bug
+2.开发假期相关功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.经营指标分析模型修改。
+2.资产负债表测试。
+3.权限分配，配置一张明细表格。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.经营指标分析模型修改。
+2.资产负债表测试。
+3.分配人力资源分析表的权限。
+4.修改经营分析的单个模块。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈子瑶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.部署假期管理功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.待完成
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.部署假日相关功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.修改经营分析模型
+4.核对经营指标数据
+5.修改dw_staff和dw_dept出表逻辑</t>
+  </si>
+  <si>
+    <t>王晓旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完善出差公出报备的查询页面样式和后台逻辑
+2.修改出差公出报备的申请逻辑
+3.编写出差公出报备的页面的校验逻辑
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成
+2.完成
+3.待完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写出差公出报备的页面的校验逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完善出差公出报备的查询
+2.修改完出差公出报备的页面校验
+3.修改考勤明细的页面校验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>204替换考勤明细的代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.修改经营分析模型
+4.配置报表权限和数据权限</t>
+  </si>
+  <si>
+    <t>1.查看sap抽数进程
+2.核对35表36表数据
+3.现金流量表逻辑修改</t>
+  </si>
+  <si>
+    <t>1.经营指标分析分配权限。
+2.资产负债表测试。
+3.分配人力资源分析表的权限。
+4.修改经营分析的单个模块。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.经营分析、人力分析权限跟踪反馈是否要继续修改。
+2.资产负债表上线。
+3.财务报表页面修改调整。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2608,6 +3303,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14996795556505021"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14996795556505021"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2677,7 +3388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2724,6 +3435,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6467,7 +7184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -6577,6 +7294,1056 @@
         <v>144</v>
       </c>
       <c r="G6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
+    <col min="6" max="6" width="39.375" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43658</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11">
+        <v>43658</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43659</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="50.375" customWidth="1"/>
+    <col min="8" max="8" width="42.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43661</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43661</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="6" max="6" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43662</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43662</v>
+      </c>
+      <c r="D4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" t="s">
+        <v>490</v>
+      </c>
+      <c r="G4" t="s">
+        <v>491</v>
+      </c>
+      <c r="H4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43662</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43662</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="42.375" customWidth="1"/>
+    <col min="6" max="6" width="49.125" customWidth="1"/>
+    <col min="8" max="8" width="23.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="180" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43663</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="99" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43663</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43663</v>
+      </c>
+      <c r="D5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E5" t="s">
+        <v>294</v>
+      </c>
+      <c r="H5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43663</v>
+      </c>
+      <c r="D6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="36.5" customWidth="1"/>
+    <col min="6" max="6" width="37.125" customWidth="1"/>
+    <col min="8" max="8" width="23.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43664</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43665</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43669</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43670</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43671</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>43672</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="99" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43668</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="99" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43665</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43669</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43670</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="99" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43671</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43672</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43669</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43670</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="46.75" customWidth="1"/>
+    <col min="6" max="6" width="53.25" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43675</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43675</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43675</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="39.875" customWidth="1"/>
+    <col min="6" max="6" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="37.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43676</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43676</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43676</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43676</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>558</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6720,6 +8487,465 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="41.875" customWidth="1"/>
+    <col min="6" max="6" width="43.625" customWidth="1"/>
+    <col min="8" max="8" width="29.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>43677</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43677</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="66" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43677</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="35.25" customWidth="1"/>
+    <col min="6" max="6" width="40.625" customWidth="1"/>
+    <col min="8" max="8" width="34.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43678</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="33" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43678</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43678</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43678</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="31.25" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="8" max="8" width="26.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43679</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43679</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43679</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="39.875" customWidth="1"/>
+    <col min="6" max="6" width="33.125" customWidth="1"/>
+    <col min="8" max="8" width="38.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43682</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="198" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43682</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43682</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
